--- a/runs/run195/NotionalETEOutput195.xlsx
+++ b/runs/run195/NotionalETEOutput195.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX1_State_Update</t>
+    <t>Missile_SOMERSAULT3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1_476.MISSILE_ANGERMAX1_476</t>
+    <t>MISSILE_SOMERSAULT3_228.MISSILE_SOMERSAULT3_228</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1</t>
+    <t>MISSILE_SOMERSAULT3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1563.842564456405</v>
+        <v>-1531.38962760094</v>
       </c>
       <c r="J2">
-        <v>2003.90301513767</v>
+        <v>1947.679312524824</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1398.028491227339</v>
+        <v>-1477.285986122162</v>
       </c>
       <c r="J3">
-        <v>1954.410686885795</v>
+        <v>2026.661338864905</v>
       </c>
       <c r="K3">
-        <v>312.9174257482848</v>
+        <v>310.6114075389586</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1424.357295716817</v>
+        <v>-1463.419802011332</v>
       </c>
       <c r="J4">
-        <v>1974.770086484696</v>
+        <v>1898.527497991529</v>
       </c>
       <c r="K4">
-        <v>599.6650452947536</v>
+        <v>572.8363681808305</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1440.114979893421</v>
+        <v>-1479.268867442736</v>
       </c>
       <c r="J5">
-        <v>1923.808079879216</v>
+        <v>1878.265840894103</v>
       </c>
       <c r="K5">
-        <v>847.7816897413039</v>
+        <v>885.3634798799116</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1367.574253975876</v>
+        <v>-1395.503711787187</v>
       </c>
       <c r="J6">
-        <v>1850.079471629699</v>
+        <v>1823.696849516124</v>
       </c>
       <c r="K6">
-        <v>1166.300351448423</v>
+        <v>1103.173584146215</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1291.171625571111</v>
+        <v>-1372.568324609011</v>
       </c>
       <c r="J7">
-        <v>1802.950491772762</v>
+        <v>1705.065616360754</v>
       </c>
       <c r="K7">
-        <v>1341.921776864585</v>
+        <v>1374.045154350089</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1341.790748847397</v>
+        <v>-1344.990652122543</v>
       </c>
       <c r="J8">
-        <v>1642.906258434108</v>
+        <v>1652.985297165508</v>
       </c>
       <c r="K8">
-        <v>1598.536227674839</v>
+        <v>1560.287953416656</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.24506945382073</v>
+        <v>-96.7835740282178</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1313.455669049716</v>
+        <v>-1278.199939769145</v>
       </c>
       <c r="J9">
-        <v>1698.483576402255</v>
+        <v>1703.122617951301</v>
       </c>
       <c r="K9">
-        <v>1750.859520169149</v>
+        <v>1853.251715769761</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>211.3860412989739</v>
+        <v>211.26786779206</v>
       </c>
       <c r="G10">
-        <v>-80.14908111302817</v>
+        <v>-80.49640506769552</v>
       </c>
       <c r="H10">
-        <v>900.1587177422831</v>
+        <v>860.7122996303448</v>
       </c>
       <c r="I10">
-        <v>-1273.86063405352</v>
+        <v>-1203.229271690965</v>
       </c>
       <c r="J10">
-        <v>1600.253886372877</v>
+        <v>1647.526073206991</v>
       </c>
       <c r="K10">
-        <v>1944.838656877281</v>
+        <v>1925.706577860279</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>162.5973108740476</v>
+        <v>160.9066437857369</v>
       </c>
       <c r="G11">
-        <v>-68.84609546623082</v>
+        <v>-70.21953207394726</v>
       </c>
       <c r="H11">
-        <v>1041.304967706955</v>
+        <v>1099.57015811397</v>
       </c>
       <c r="I11">
-        <v>-1229.883288979415</v>
+        <v>-1174.506112768418</v>
       </c>
       <c r="J11">
-        <v>1605.481271749696</v>
+        <v>1547.820819880042</v>
       </c>
       <c r="K11">
-        <v>2278.983485502758</v>
+        <v>2259.575966196482</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.3648090262561</v>
+        <v>136.0455148424049</v>
       </c>
       <c r="G12">
-        <v>-48.7082390728584</v>
+        <v>-51.42372274490359</v>
       </c>
       <c r="H12">
-        <v>1200.345541353937</v>
+        <v>1207.029166914201</v>
       </c>
       <c r="I12">
-        <v>-1202.633585358658</v>
+        <v>-1160.791236252994</v>
       </c>
       <c r="J12">
-        <v>1448.790553315769</v>
+        <v>1469.946505451678</v>
       </c>
       <c r="K12">
-        <v>2257.408123190085</v>
+        <v>2440.960997368614</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.5616513489857</v>
+        <v>123.9480784297315</v>
       </c>
       <c r="G13">
-        <v>-34.79531221309043</v>
+        <v>-34.04549154278424</v>
       </c>
       <c r="H13">
-        <v>1304.676607522993</v>
+        <v>1257.066574055449</v>
       </c>
       <c r="I13">
-        <v>-1145.125642487875</v>
+        <v>-1159.158856451148</v>
       </c>
       <c r="J13">
-        <v>1403.640527827316</v>
+        <v>1498.928059736367</v>
       </c>
       <c r="K13">
-        <v>2450.704843875609</v>
+        <v>2500.863580334652</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.7502303687919</v>
+        <v>112.4843636785276</v>
       </c>
       <c r="G14">
-        <v>-17.69358819880459</v>
+        <v>-17.6339983499895</v>
       </c>
       <c r="H14">
-        <v>1304.26624627819</v>
+        <v>1325.927876112918</v>
       </c>
       <c r="I14">
-        <v>-1111.898273882317</v>
+        <v>-1096.515075418891</v>
       </c>
       <c r="J14">
-        <v>1472.091596277953</v>
+        <v>1479.795419022184</v>
       </c>
       <c r="K14">
-        <v>2561.811052518495</v>
+        <v>2579.178003431828</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.69834722917724</v>
+        <v>95.99086054800399</v>
       </c>
       <c r="G15">
-        <v>-0.8938374020227693</v>
+        <v>-0.8921987105849807</v>
       </c>
       <c r="H15">
-        <v>1374.997284192251</v>
+        <v>1349.885026347198</v>
       </c>
       <c r="I15">
-        <v>-1022.718897205245</v>
+        <v>-1016.248583300534</v>
       </c>
       <c r="J15">
-        <v>1300.518686730444</v>
+        <v>1410.571418648125</v>
       </c>
       <c r="K15">
-        <v>2772.754487677448</v>
+        <v>2740.157932858276</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.14890068740277</v>
+        <v>96.3700508841122</v>
       </c>
       <c r="G16">
-        <v>15.23407009273433</v>
+        <v>16.12455359407205</v>
       </c>
       <c r="H16">
-        <v>1496.620354792937</v>
+        <v>1378.501016500545</v>
       </c>
       <c r="I16">
-        <v>-1017.043101755569</v>
+        <v>-971.9757456228443</v>
       </c>
       <c r="J16">
-        <v>1311.956897498404</v>
+        <v>1351.522303756628</v>
       </c>
       <c r="K16">
-        <v>2875.687931670061</v>
+        <v>2893.87524693147</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.02579849758614</v>
+        <v>83.92874683521153</v>
       </c>
       <c r="G17">
-        <v>31.06416401479942</v>
+        <v>33.44459246539524</v>
       </c>
       <c r="H17">
-        <v>1496.490089169563</v>
+        <v>1470.231467491765</v>
       </c>
       <c r="I17">
-        <v>-934.6067111501455</v>
+        <v>-993.9324687944238</v>
       </c>
       <c r="J17">
-        <v>1211.297793960501</v>
+        <v>1332.746117022093</v>
       </c>
       <c r="K17">
-        <v>2820.953361861987</v>
+        <v>2833.014159478125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.48855710409219</v>
+        <v>85.83361273971327</v>
       </c>
       <c r="G18">
-        <v>46.53461766833856</v>
+        <v>46.48883403065475</v>
       </c>
       <c r="H18">
-        <v>1488.429033298041</v>
+        <v>1433.79538633445</v>
       </c>
       <c r="I18">
-        <v>-915.7241989497392</v>
+        <v>-943.790334769884</v>
       </c>
       <c r="J18">
-        <v>1207.173476842858</v>
+        <v>1242.979747319956</v>
       </c>
       <c r="K18">
-        <v>3143.088104076156</v>
+        <v>2961.669398600589</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.17781400479456</v>
+        <v>74.05375744201224</v>
       </c>
       <c r="G19">
-        <v>64.69933245497246</v>
+        <v>65.23427804512218</v>
       </c>
       <c r="H19">
-        <v>1591.978535102578</v>
+        <v>1526.164072705513</v>
       </c>
       <c r="I19">
-        <v>-905.734021705523</v>
+        <v>-875.2729802002802</v>
       </c>
       <c r="J19">
-        <v>1151.622237845513</v>
+        <v>1144.260474589349</v>
       </c>
       <c r="K19">
-        <v>3166.188695003621</v>
+        <v>3135.647535872173</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.60154170856487</v>
+        <v>71.31373516360495</v>
       </c>
       <c r="G20">
-        <v>85.00005778961994</v>
+        <v>84.18953073641728</v>
       </c>
       <c r="H20">
-        <v>1560.38594484403</v>
+        <v>1588.731191714175</v>
       </c>
       <c r="I20">
-        <v>-854.1092309821228</v>
+        <v>-833.8691927523864</v>
       </c>
       <c r="J20">
-        <v>1121.504310237847</v>
+        <v>1087.956329017162</v>
       </c>
       <c r="K20">
-        <v>3238.191899982254</v>
+        <v>3021.47672269231</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.92077786468768</v>
+        <v>70.0454192825116</v>
       </c>
       <c r="G21">
-        <v>99.54212820411168</v>
+        <v>94.92742698144649</v>
       </c>
       <c r="H21">
-        <v>1510.271716062714</v>
+        <v>1513.048176816727</v>
       </c>
       <c r="I21">
-        <v>-818.0227915280731</v>
+        <v>-777.1751998852347</v>
       </c>
       <c r="J21">
-        <v>1090.728404109032</v>
+        <v>1054.86552775857</v>
       </c>
       <c r="K21">
-        <v>3151.931208201847</v>
+        <v>3294.470390245377</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.09275179402981</v>
+        <v>67.86128742084584</v>
       </c>
       <c r="G22">
-        <v>109.2447777299772</v>
+        <v>119.05776699771</v>
       </c>
       <c r="H22">
-        <v>1663.537104162986</v>
+        <v>1597.778225751687</v>
       </c>
       <c r="I22">
-        <v>-755.3314604171459</v>
+        <v>-722.4271470179062</v>
       </c>
       <c r="J22">
-        <v>1002.505414856016</v>
+        <v>977.1055942323748</v>
       </c>
       <c r="K22">
-        <v>3160.550259738905</v>
+        <v>3126.358568844615</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.89148821922014</v>
+        <v>67.02838451480162</v>
       </c>
       <c r="G23">
-        <v>125.4090983406879</v>
+        <v>135.4598999655496</v>
       </c>
       <c r="H23">
-        <v>1634.177398840272</v>
+        <v>1650.980053186778</v>
       </c>
       <c r="I23">
-        <v>-710.9578360834884</v>
+        <v>-707.1888179308112</v>
       </c>
       <c r="J23">
-        <v>964.6595951405907</v>
+        <v>948.1283599008391</v>
       </c>
       <c r="K23">
-        <v>3203.918978127385</v>
+        <v>3332.604857266631</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.18024071457457</v>
+        <v>60.60758637830305</v>
       </c>
       <c r="G24">
-        <v>150.1278706635551</v>
+        <v>148.7734702163801</v>
       </c>
       <c r="H24">
-        <v>1671.560656863911</v>
+        <v>1712.975564309847</v>
       </c>
       <c r="I24">
-        <v>-669.6520376426323</v>
+        <v>-645.7875272986223</v>
       </c>
       <c r="J24">
-        <v>959.6704381874091</v>
+        <v>896.858842971604</v>
       </c>
       <c r="K24">
-        <v>3142.595809054689</v>
+        <v>3238.320638375146</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.24867884737763</v>
+        <v>62.22398747409</v>
       </c>
       <c r="G25">
-        <v>159.5379488789534</v>
+        <v>158.1143106681608</v>
       </c>
       <c r="H25">
-        <v>1754.927018117585</v>
+        <v>1673.79935740502</v>
       </c>
       <c r="I25">
-        <v>-582.047544642263</v>
+        <v>-611.4902619324937</v>
       </c>
       <c r="J25">
-        <v>837.5281533538021</v>
+        <v>922.6424966627835</v>
       </c>
       <c r="K25">
-        <v>3161.22995969438</v>
+        <v>3084.678743861893</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.110766928968</v>
+        <v>58.20629553382844</v>
       </c>
       <c r="G26">
-        <v>172.5998290105601</v>
+        <v>176.7901996143648</v>
       </c>
       <c r="H26">
-        <v>1626.982092244715</v>
+        <v>1705.749144927456</v>
       </c>
       <c r="I26">
-        <v>-522.3282585600738</v>
+        <v>-568.6693328745828</v>
       </c>
       <c r="J26">
-        <v>816.6874113485328</v>
+        <v>858.1578770359858</v>
       </c>
       <c r="K26">
-        <v>3202.626072078584</v>
+        <v>2983.002213353618</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.04980475556872</v>
+        <v>56.04801512241551</v>
       </c>
       <c r="G27">
-        <v>202.7851155683551</v>
+        <v>190.9375742665193</v>
       </c>
       <c r="H27">
-        <v>1782.185277423634</v>
+        <v>1768.427818873062</v>
       </c>
       <c r="I27">
-        <v>-477.3170347347032</v>
+        <v>-485.452798966757</v>
       </c>
       <c r="J27">
-        <v>785.5936697912585</v>
+        <v>753.8140313321474</v>
       </c>
       <c r="K27">
-        <v>3133.827955186568</v>
+        <v>2996.100893525906</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.21208504648191</v>
+        <v>55.09543632106447</v>
       </c>
       <c r="G28">
-        <v>218.9062693877307</v>
+        <v>213.1110731397839</v>
       </c>
       <c r="H28">
-        <v>1686.53254930054</v>
+        <v>1770.400652457847</v>
       </c>
       <c r="I28">
-        <v>-456.5279127839769</v>
+        <v>-435.6605315228858</v>
       </c>
       <c r="J28">
-        <v>701.608134835466</v>
+        <v>736.6483806861482</v>
       </c>
       <c r="K28">
-        <v>2911.422621171467</v>
+        <v>2826.816946943622</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.20522667946592</v>
+        <v>55.00085828703018</v>
       </c>
       <c r="G29">
-        <v>240.8385950169249</v>
+        <v>221.4958693035921</v>
       </c>
       <c r="H29">
-        <v>1657.191084845349</v>
+        <v>1790.816721227896</v>
       </c>
       <c r="I29">
-        <v>-384.2720524461944</v>
+        <v>-396.9408460021907</v>
       </c>
       <c r="J29">
-        <v>705.7952497161268</v>
+        <v>679.9835900502487</v>
       </c>
       <c r="K29">
-        <v>2800.159493193885</v>
+        <v>2931.446581918519</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.02379602503713</v>
+        <v>52.86885658314669</v>
       </c>
       <c r="G30">
-        <v>252.1492176367255</v>
+        <v>256.7462856913379</v>
       </c>
       <c r="H30">
-        <v>1691.580575943074</v>
+        <v>1810.074956041735</v>
       </c>
       <c r="I30">
-        <v>-314.9528499290204</v>
+        <v>-327.516536390217</v>
       </c>
       <c r="J30">
-        <v>661.0306481102238</v>
+        <v>661.318532688559</v>
       </c>
       <c r="K30">
-        <v>2783.496308679235</v>
+        <v>2688.819574991759</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.57105124261757</v>
+        <v>50.24344789812113</v>
       </c>
       <c r="G31">
-        <v>268.5747457064256</v>
+        <v>258.9003759079137</v>
       </c>
       <c r="H31">
-        <v>1854.901948318268</v>
+        <v>1819.743918926763</v>
       </c>
       <c r="I31">
-        <v>-270.3886077727444</v>
+        <v>-254.9227344657701</v>
       </c>
       <c r="J31">
-        <v>600.4296014063958</v>
+        <v>605.0264281293959</v>
       </c>
       <c r="K31">
-        <v>2672.305071984382</v>
+        <v>2629.496602536916</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.92182393527789</v>
+        <v>51.73165475801424</v>
       </c>
       <c r="G32">
-        <v>273.3898328570077</v>
+        <v>266.2976344577742</v>
       </c>
       <c r="H32">
-        <v>1766.823341223033</v>
+        <v>1795.746689370674</v>
       </c>
       <c r="I32">
-        <v>-211.2804490109614</v>
+        <v>-208.1542787899152</v>
       </c>
       <c r="J32">
-        <v>531.75048536888</v>
+        <v>543.5521888543566</v>
       </c>
       <c r="K32">
-        <v>2527.500608297797</v>
+        <v>2424.432509533122</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.99726810628349</v>
+        <v>48.25770404506831</v>
       </c>
       <c r="G33">
-        <v>310.6419510565429</v>
+        <v>307.2214907197204</v>
       </c>
       <c r="H33">
-        <v>1841.21484667507</v>
+        <v>1832.335133092264</v>
       </c>
       <c r="I33">
-        <v>-150.0967838185446</v>
+        <v>-143.2577039561652</v>
       </c>
       <c r="J33">
-        <v>492.8740634652602</v>
+        <v>493.1411079105552</v>
       </c>
       <c r="K33">
-        <v>2265.013375936265</v>
+        <v>2392.402149775812</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.0800975002287</v>
+        <v>48.76680725340546</v>
       </c>
       <c r="G34">
-        <v>297.6778034359592</v>
+        <v>323.7115145807999</v>
       </c>
       <c r="H34">
-        <v>1841.681248580194</v>
+        <v>1890.155120091344</v>
       </c>
       <c r="I34">
-        <v>-80.85484580792267</v>
+        <v>-79.14564885131543</v>
       </c>
       <c r="J34">
-        <v>458.187983783457</v>
+        <v>449.8557631859192</v>
       </c>
       <c r="K34">
-        <v>2197.042253928624</v>
+        <v>2141.432635697697</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.57340887806392</v>
+        <v>48.68333338540027</v>
       </c>
       <c r="G35">
-        <v>333.7373054888782</v>
+        <v>318.1458279225781</v>
       </c>
       <c r="H35">
-        <v>1812.485918834653</v>
+        <v>1798.627253583167</v>
       </c>
       <c r="I35">
-        <v>-19.06108518740083</v>
+        <v>-17.99431682751679</v>
       </c>
       <c r="J35">
-        <v>388.13148048938</v>
+        <v>390.5334598990505</v>
       </c>
       <c r="K35">
-        <v>2109.718009407726</v>
+        <v>1967.952180824411</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.16064342115948</v>
+        <v>48.8401680874987</v>
       </c>
       <c r="G36">
-        <v>362.4615946223706</v>
+        <v>336.0064620873665</v>
       </c>
       <c r="H36">
-        <v>1827.904841711468</v>
+        <v>1838.602238817033</v>
       </c>
       <c r="I36">
-        <v>46.38259937606153</v>
+        <v>46.08240522152446</v>
       </c>
       <c r="J36">
-        <v>360.67232736831</v>
+        <v>360.7630602096204</v>
       </c>
       <c r="K36">
-        <v>1911.992731029482</v>
+        <v>1900.877666110431</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.42319994346932</v>
+        <v>48.50598403323547</v>
       </c>
       <c r="G37">
-        <v>372.7959903746337</v>
+        <v>379.6064317743013</v>
       </c>
       <c r="H37">
-        <v>1832.473806841997</v>
+        <v>1838.233613598515</v>
       </c>
       <c r="I37">
-        <v>114.4791005430454</v>
+        <v>120.0873923501653</v>
       </c>
       <c r="J37">
-        <v>295.2947998253117</v>
+        <v>286.4520799745705</v>
       </c>
       <c r="K37">
-        <v>1611.776863554444</v>
+        <v>1664.447758379355</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.29912363949934</v>
+        <v>45.11706028053781</v>
       </c>
       <c r="G38">
-        <v>372.9412026620564</v>
+        <v>395.2940177364354</v>
       </c>
       <c r="H38">
-        <v>1770.934618102818</v>
+        <v>1869.9361951361</v>
       </c>
       <c r="I38">
-        <v>191.4685400192732</v>
+        <v>175.3557462443359</v>
       </c>
       <c r="J38">
-        <v>237.1156366160155</v>
+        <v>237.8755060195891</v>
       </c>
       <c r="K38">
-        <v>1369.028327328735</v>
+        <v>1332.540328132757</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.4152330245759</v>
+        <v>45.62665049134772</v>
       </c>
       <c r="G39">
-        <v>404.0754996613265</v>
+        <v>398.5065507519393</v>
       </c>
       <c r="H39">
-        <v>1819.7810765045</v>
+        <v>1809.617858943905</v>
       </c>
       <c r="I39">
-        <v>255.6329432507437</v>
+        <v>259.9379913552275</v>
       </c>
       <c r="J39">
-        <v>199.674094406089</v>
+        <v>194.9003721694027</v>
       </c>
       <c r="K39">
-        <v>1124.913660147797</v>
+        <v>1153.519716140354</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.75157832998886</v>
+        <v>45.88255171305773</v>
       </c>
       <c r="G40">
-        <v>423.4559983646673</v>
+        <v>410.7569464865859</v>
       </c>
       <c r="H40">
-        <v>1857.460492390352</v>
+        <v>1963.301512409634</v>
       </c>
       <c r="I40">
-        <v>332.6979167466455</v>
+        <v>343.5099364283623</v>
       </c>
       <c r="J40">
-        <v>158.4189151508099</v>
+        <v>158.3705158486896</v>
       </c>
       <c r="K40">
-        <v>862.091325835189</v>
+        <v>897.8800170451721</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.7133602921</v>
+        <v>43.35605141768003</v>
       </c>
       <c r="G41">
-        <v>412.7601656106073</v>
+        <v>447.9680925061961</v>
       </c>
       <c r="H41">
-        <v>1833.625810020403</v>
+        <v>1831.061871200184</v>
       </c>
       <c r="I41">
-        <v>386.692906603956</v>
+        <v>394.9129445218733</v>
       </c>
       <c r="J41">
-        <v>105.6067844444204</v>
+        <v>104.3622466791555</v>
       </c>
       <c r="K41">
-        <v>650.3439426803108</v>
+        <v>629.4171731442473</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.51510473353296</v>
+        <v>44.85388307303449</v>
       </c>
       <c r="G42">
-        <v>442.1705337645329</v>
+        <v>459.595625249859</v>
       </c>
       <c r="H42">
-        <v>1864.880845388835</v>
+        <v>1816.702771510347</v>
       </c>
       <c r="I42">
-        <v>499.16581398284</v>
+        <v>495.1084066010424</v>
       </c>
       <c r="J42">
-        <v>54.4151701277308</v>
+        <v>51.32899337879824</v>
       </c>
       <c r="K42">
-        <v>342.9120424284507</v>
+        <v>334.4743298823004</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.57147238738315</v>
+        <v>40.80331182568059</v>
       </c>
       <c r="G43">
-        <v>472.8426663471557</v>
+        <v>450.3693926018885</v>
       </c>
       <c r="H43">
-        <v>1888.779364299552</v>
+        <v>1845.645672191622</v>
       </c>
       <c r="I43">
-        <v>579.3996528560741</v>
+        <v>535.6315793708409</v>
       </c>
       <c r="J43">
-        <v>5.305045221686321</v>
+        <v>5.070267467362839</v>
       </c>
       <c r="K43">
-        <v>32.98026568043076</v>
+        <v>33.30590353758596</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.56701942304893</v>
+        <v>43.11834852700807</v>
       </c>
       <c r="G44">
-        <v>494.2275467798304</v>
+        <v>484.7952698240425</v>
       </c>
       <c r="H44">
-        <v>1814.137693244966</v>
+        <v>1972.76421980147</v>
       </c>
       <c r="I44">
-        <v>612.1979879129154</v>
+        <v>660.4301230503361</v>
       </c>
       <c r="J44">
-        <v>-44.50928419558917</v>
+        <v>-43.43520137695948</v>
       </c>
       <c r="K44">
-        <v>-292.3606829807308</v>
+        <v>-282.8971552256385</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.29341941339943</v>
+        <v>40.48481457345258</v>
       </c>
       <c r="G45">
-        <v>480.7740289971958</v>
+        <v>486.1422361648869</v>
       </c>
       <c r="H45">
-        <v>1863.6355453753</v>
+        <v>1961.859218728732</v>
       </c>
       <c r="I45">
-        <v>749.9009502835873</v>
+        <v>694.3038508944978</v>
       </c>
       <c r="J45">
-        <v>-90.77500862027543</v>
+        <v>-89.61147156841957</v>
       </c>
       <c r="K45">
-        <v>-589.8451272432342</v>
+        <v>-637.9546860375993</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.74222462336454</v>
+        <v>41.18040892012303</v>
       </c>
       <c r="G46">
-        <v>522.7498811200944</v>
+        <v>502.2336936690305</v>
       </c>
       <c r="H46">
-        <v>1950.739271462293</v>
+        <v>1936.642301353899</v>
       </c>
       <c r="I46">
-        <v>796.2114379672875</v>
+        <v>788.2496923530699</v>
       </c>
       <c r="J46">
-        <v>-136.0109628712773</v>
+        <v>-139.1559334476233</v>
       </c>
       <c r="K46">
-        <v>-931.5775617689363</v>
+        <v>-958.7739650764174</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.25294197258911</v>
+        <v>40.71979447978285</v>
       </c>
       <c r="G47">
-        <v>519.3132609017821</v>
+        <v>541.7556509013061</v>
       </c>
       <c r="H47">
-        <v>1880.040756653206</v>
+        <v>2019.593088659637</v>
       </c>
       <c r="I47">
-        <v>909.912682271623</v>
+        <v>879.6781048862737</v>
       </c>
       <c r="J47">
-        <v>-181.00068482591</v>
+        <v>-181.3734740934652</v>
       </c>
       <c r="K47">
-        <v>-1368.73063038628</v>
+        <v>-1268.791542479775</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.22401010775283</v>
+        <v>40.98324166306044</v>
       </c>
       <c r="G48">
-        <v>529.7510715823571</v>
+        <v>554.4814574293353</v>
       </c>
       <c r="H48">
-        <v>1860.214684919384</v>
+        <v>1875.838074717542</v>
       </c>
       <c r="I48">
-        <v>975.5328323468555</v>
+        <v>1014.572811666093</v>
       </c>
       <c r="J48">
-        <v>-246.7886197675649</v>
+        <v>-244.337664061956</v>
       </c>
       <c r="K48">
-        <v>-1697.062349716118</v>
+        <v>-1640.7854135149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.8809756113891</v>
+        <v>38.22766557903442</v>
       </c>
       <c r="G49">
-        <v>558.9616574210353</v>
+        <v>580.583935095817</v>
       </c>
       <c r="H49">
-        <v>1862.253417945867</v>
+        <v>1854.675867765347</v>
       </c>
       <c r="I49">
-        <v>1117.89549551034</v>
+        <v>1063.257005562004</v>
       </c>
       <c r="J49">
-        <v>-293.8039053250964</v>
+        <v>-281.3329196986849</v>
       </c>
       <c r="K49">
-        <v>-2085.250831448963</v>
+        <v>-2073.105052031712</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.34216565608026</v>
+        <v>40.27634835850544</v>
       </c>
       <c r="G50">
-        <v>579.9702206900677</v>
+        <v>566.2304690347067</v>
       </c>
       <c r="H50">
-        <v>2030.8963439162</v>
+        <v>1860.427602602422</v>
       </c>
       <c r="I50">
-        <v>1116.647152877935</v>
+        <v>1105.994354628791</v>
       </c>
       <c r="J50">
-        <v>-326.5948220902728</v>
+        <v>-333.0120201426766</v>
       </c>
       <c r="K50">
-        <v>-2496.765447666653</v>
+        <v>-2434.526277885882</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.29261251944271</v>
+        <v>38.53726602888948</v>
       </c>
       <c r="G51">
-        <v>580.8161597616488</v>
+        <v>574.3981730533363</v>
       </c>
       <c r="H51">
-        <v>2036.843827737861</v>
+        <v>1972.768564862304</v>
       </c>
       <c r="I51">
-        <v>1271.40692968799</v>
+        <v>1270.04440592979</v>
       </c>
       <c r="J51">
-        <v>-367.7901435163135</v>
+        <v>-379.651640742906</v>
       </c>
       <c r="K51">
-        <v>-2890.771252363637</v>
+        <v>-2944.21624706139</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.90718930395516</v>
+        <v>36.60724743160826</v>
       </c>
       <c r="G52">
-        <v>634.6133690357551</v>
+        <v>629.244379076875</v>
       </c>
       <c r="H52">
-        <v>1872.915255924771</v>
+        <v>2058.961212229761</v>
       </c>
       <c r="I52">
-        <v>1340.159778264288</v>
+        <v>1376.048170986628</v>
       </c>
       <c r="J52">
-        <v>-424.3978481556961</v>
+        <v>-429.0076072433857</v>
       </c>
       <c r="K52">
-        <v>-3525.786757502905</v>
+        <v>-3363.64630166918</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.29853701573858</v>
+        <v>36.34723456885494</v>
       </c>
       <c r="G53">
-        <v>642.7579749216573</v>
+        <v>603.199607532283</v>
       </c>
       <c r="H53">
-        <v>1963.443144531503</v>
+        <v>1905.100896015161</v>
       </c>
       <c r="I53">
-        <v>1422.882689174914</v>
+        <v>1525.800581125765</v>
       </c>
       <c r="J53">
-        <v>-476.6088258151929</v>
+        <v>-503.6752266582415</v>
       </c>
       <c r="K53">
-        <v>-3994.349109232339</v>
+        <v>-3648.900628681126</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.70490284974436</v>
+        <v>35.82962660637251</v>
       </c>
       <c r="G54">
-        <v>612.9876833528682</v>
+        <v>618.747281801451</v>
       </c>
       <c r="H54">
-        <v>2072.977646198321</v>
+        <v>2020.829792110412</v>
       </c>
       <c r="I54">
-        <v>1483.514627923829</v>
+        <v>1620.962597561134</v>
       </c>
       <c r="J54">
-        <v>-529.6339522463492</v>
+        <v>-511.9834286387875</v>
       </c>
       <c r="K54">
-        <v>-4211.99874892957</v>
+        <v>-4373.686776622459</v>
       </c>
     </row>
   </sheetData>
